--- a/Files/Tables/Daedric Aspects.xlsx
+++ b/Files/Tables/Daedric Aspects.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
     <sheet name="Personalities" sheetId="2" r:id="rId2"/>
     <sheet name="Loyalty Bonus" sheetId="3" r:id="rId3"/>
     <sheet name="Moods" sheetId="4" r:id="rId4"/>
-    <sheet name="Extra Properties" sheetId="5" r:id="rId5"/>
+    <sheet name="Hiden Properties" sheetId="5" r:id="rId5"/>
     <sheet name="Enchanment Boost" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>This is a special table that will contain all the information related to the new mechanics implemented for the Daedric equipments, such as personality types,loyalty bonuses and enchantment boosts</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="73">
   <si>
     <t>PERSONALITY TYPES</t>
   </si>
@@ -65,35 +62,220 @@
     <t>EXTRA PROPERTIES</t>
   </si>
   <si>
-    <t>ENCHANTMENT BOOSTS</t>
-  </si>
-  <si>
     <t>ENCHANTMENT/PROPERTY/EFFECT</t>
   </si>
   <si>
-    <t>The LOYALTY BONUS is mechanic that enhances the positive effects and mitigates the negative effects frmo the equiment the more time it is used, thus representing the "bond" beteween the user and the artifact</t>
-  </si>
-  <si>
     <t>This mechanic refer to the personality types that a Daedric Vestige can assume and their respective effects</t>
   </si>
   <si>
     <t>This mechanic refer to the different types of moods that a respective personality of a Daedric Vestige can assume</t>
   </si>
   <si>
-    <t>Extra properties that of the Daedric equiments</t>
-  </si>
-  <si>
-    <t>This mechanic refers to the effects that a Daedric vestige witha respective personality apply to specific enchantments/properties</t>
+    <t>Berserker</t>
+  </si>
+  <si>
+    <t>Intelligent</t>
+  </si>
+  <si>
+    <t>Adaptive</t>
+  </si>
+  <si>
+    <t>Honorable</t>
+  </si>
+  <si>
+    <t>Dominant</t>
+  </si>
+  <si>
+    <t>Submissive</t>
+  </si>
+  <si>
+    <t>Perfectionist</t>
+  </si>
+  <si>
+    <t>Vigilant</t>
+  </si>
+  <si>
+    <t>Brave</t>
+  </si>
+  <si>
+    <t>Stable</t>
+  </si>
+  <si>
+    <t>Destructive, violent and bloodthirsty</t>
+  </si>
+  <si>
+    <t>Cautious, quick thinking and strategic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick reflexes, high adaptation to both combat and environment </t>
+  </si>
+  <si>
+    <t>Loyal, fair and humble</t>
+  </si>
+  <si>
+    <t>Subservient, fearful and cowardly</t>
+  </si>
+  <si>
+    <t>Apex like personality, adapts to be the best at any situation</t>
+  </si>
+  <si>
+    <t>Stubborn, hates being told what to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Defensive, distrustful and always perceptive </t>
+  </si>
+  <si>
+    <t>Assertive, competitive and loves to battle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emotionally stable, adaptive and calm </t>
+  </si>
+  <si>
+    <t>Tense</t>
+  </si>
+  <si>
+    <t>Lazy</t>
+  </si>
+  <si>
+    <t>Angry</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Calm</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Enraged</t>
+  </si>
+  <si>
+    <t>Excited</t>
+  </si>
+  <si>
+    <t>Insane</t>
+  </si>
+  <si>
+    <t>Ramdom, chaotic and unstable</t>
+  </si>
+  <si>
+    <t>Cheerful</t>
+  </si>
+  <si>
+    <t>Dreamy</t>
+  </si>
+  <si>
+    <t>Depressed</t>
+  </si>
+  <si>
+    <t>Ecstatic</t>
+  </si>
+  <si>
+    <t>Melancholy</t>
+  </si>
+  <si>
+    <t>irritated</t>
+  </si>
+  <si>
+    <t>Amused</t>
+  </si>
+  <si>
+    <t>Joyful</t>
+  </si>
+  <si>
+    <t>Peaceful</t>
+  </si>
+  <si>
+    <t>Flirty</t>
+  </si>
+  <si>
+    <t>Bonus</t>
+  </si>
+  <si>
+    <t>Stimulation</t>
+  </si>
+  <si>
+    <t>Devoted</t>
+  </si>
+  <si>
+    <t>Trustworthy</t>
+  </si>
+  <si>
+    <t>Ardent</t>
+  </si>
+  <si>
+    <t>Disloyal</t>
+  </si>
+  <si>
+    <t>Unfaithful</t>
+  </si>
+  <si>
+    <t>Reliable</t>
+  </si>
+  <si>
+    <t>Dubious</t>
+  </si>
+  <si>
+    <t>The LOYALTY BONUS is mechanic that enhances the positive effects and mitigates the negative effects from the equiment the more time it is used, thus representing the "bond" between the user and the artifact</t>
+  </si>
+  <si>
+    <t>RARITY RATE</t>
+  </si>
+  <si>
+    <t>Extra properties that gives bonus, hiden to the player</t>
+  </si>
+  <si>
+    <t>Bonus(es)/Penalty(ies)</t>
+  </si>
+  <si>
+    <t>This mechanic refers to the effects that a Daedric vestige with a respective personality type will apply to specific enchantments/properties</t>
+  </si>
+  <si>
+    <t>ENCHANTMENT BOOSTS/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a special table that will contain all the information related to the new mechanics implemented for the Daedric equipments, such as personality types,loyalty bonuses and enchantment boosts. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLICK HERE TO BE REDIRECTIONED TO THE LORE FILE </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00FF00"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -107,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -116,11 +298,63 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thick">
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="double">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -129,7 +363,7 @@
     <border>
       <left/>
       <right/>
-      <top style="thick">
+      <top style="double">
         <color auto="1"/>
       </top>
       <bottom/>
@@ -137,22 +371,40 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="double">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="double">
         <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
+      <left style="double">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -161,40 +413,147 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="thick">
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thick">
+      <right style="double">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -204,24 +563,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hiperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -496,10 +881,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K4"/>
+  <dimension ref="B1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,91 +896,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="9"/>
-    </row>
-    <row r="4" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="10"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="15"/>
+    </row>
+    <row r="5" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="18"/>
+    </row>
+    <row r="7" spans="2:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B2:K3"/>
+  <mergeCells count="2">
+    <mergeCell ref="B2:K4"/>
+    <mergeCell ref="B6:K6"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B6:K6" r:id="rId1" display="CLICK HERE TO BE REDIRECTIONED TO THE LORE FILE "/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="15" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:6" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="2:5" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="C6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="37">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
+      <c r="C8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="37">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="37">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="37">
+        <v>0.18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="37">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="76.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="20"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="37">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="37">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="61.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="20"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="37">
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="F18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="B2:F2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -603,52 +1174,538 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B1:AI16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="6" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:35" ht="73.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+    </row>
+    <row r="5" spans="2:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:35" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="31" t="str">
+        <f>Personalities!B7</f>
+        <v>Berserker</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31" t="str">
+        <f>Personalities!B8</f>
+        <v>Intelligent</v>
+      </c>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31" t="str">
+        <f>Personalities!B9</f>
+        <v>Adaptive</v>
+      </c>
+      <c r="J7" s="31"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31" t="str">
+        <f>Personalities!B10</f>
+        <v>Honorable</v>
+      </c>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31" t="str">
+        <f>Personalities!B11</f>
+        <v>Dominant</v>
+      </c>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31" t="str">
+        <f>Personalities!B12</f>
+        <v>Submissive</v>
+      </c>
+      <c r="S7" s="31"/>
+      <c r="T7" s="31"/>
+      <c r="U7" s="31" t="str">
+        <f>Personalities!B13</f>
+        <v>Perfectionist</v>
+      </c>
+      <c r="V7" s="31"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="31" t="str">
+        <f>Personalities!B14</f>
+        <v>Vigilant</v>
+      </c>
+      <c r="Y7" s="31"/>
+      <c r="Z7" s="31"/>
+      <c r="AA7" s="31" t="str">
+        <f>Personalities!B15</f>
+        <v>Brave</v>
+      </c>
+      <c r="AB7" s="31"/>
+      <c r="AC7" s="31"/>
+      <c r="AD7" s="31" t="str">
+        <f>Personalities!B16</f>
+        <v>Stable</v>
+      </c>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="31"/>
+      <c r="AG7" s="31" t="str">
+        <f>Personalities!B17</f>
+        <v>Insane</v>
+      </c>
+      <c r="AH7" s="31"/>
+      <c r="AI7" s="31"/>
+    </row>
+    <row r="8" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="2:5" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="C8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
+      <c r="I8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="O8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="T8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="U8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="V8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="W8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="X8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF8" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG8" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="AI8" s="21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="33">
+        <v>1</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="33"/>
+      <c r="O9" s="33"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="R9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="T9" s="33"/>
+      <c r="U9" s="33"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33"/>
+      <c r="X9" s="33"/>
+      <c r="Y9" s="33"/>
+      <c r="Z9" s="33"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="33"/>
+      <c r="AC9" s="33"/>
+      <c r="AD9" s="33"/>
+      <c r="AE9" s="33"/>
+      <c r="AF9" s="33"/>
+      <c r="AG9" s="33"/>
+      <c r="AH9" s="33"/>
+      <c r="AI9" s="33"/>
+    </row>
+    <row r="10" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="34">
+        <v>2</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+    </row>
+    <row r="11" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="34">
+        <v>3</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+    </row>
+    <row r="12" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="34">
+        <v>4</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+      <c r="J12" s="34"/>
+      <c r="K12" s="34"/>
+      <c r="L12" s="34"/>
+      <c r="M12" s="34"/>
+      <c r="N12" s="34"/>
+      <c r="O12" s="34"/>
+      <c r="P12" s="34"/>
+      <c r="Q12" s="34"/>
+      <c r="R12" s="34"/>
+      <c r="S12" s="34"/>
+      <c r="T12" s="34"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="34"/>
+      <c r="W12" s="34"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="34"/>
+      <c r="AA12" s="34"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
+      <c r="AD12" s="34"/>
+      <c r="AE12" s="34"/>
+      <c r="AF12" s="34"/>
+      <c r="AG12" s="34"/>
+      <c r="AH12" s="34"/>
+      <c r="AI12" s="34"/>
+    </row>
+    <row r="13" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="34">
+        <v>5</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
+      <c r="M13" s="34"/>
+      <c r="N13" s="34"/>
+      <c r="O13" s="34"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="34"/>
+      <c r="R13" s="34"/>
+      <c r="S13" s="34"/>
+      <c r="T13" s="34"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="34"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="34"/>
+      <c r="AA13" s="34"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
+      <c r="AD13" s="34"/>
+      <c r="AE13" s="34"/>
+      <c r="AF13" s="34"/>
+      <c r="AG13" s="34"/>
+      <c r="AH13" s="34"/>
+      <c r="AI13" s="34"/>
+    </row>
+    <row r="14" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="34">
+        <v>6</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+    </row>
+    <row r="15" spans="2:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="35">
+        <v>7</v>
+      </c>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+    </row>
+    <row r="16" spans="2:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="13">
+    <mergeCell ref="AA7:AC7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AG7:AI7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="O7:Q7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="U7:W7"/>
+    <mergeCell ref="X7:Z7"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -656,42 +1713,723 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B1:X28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="4" spans="2:5" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="1" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:24" ht="57.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="24"/>
+    </row>
+    <row r="5" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="2:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="36" t="str">
+        <f>Personalities!B7</f>
+        <v>Berserker</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36" t="str">
+        <f>Personalities!B8</f>
+        <v>Intelligent</v>
+      </c>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36" t="str">
+        <f>Personalities!B9</f>
+        <v>Adaptive</v>
+      </c>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36" t="str">
+        <f>Personalities!B10</f>
+        <v>Honorable</v>
+      </c>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36" t="str">
+        <f>Personalities!B11</f>
+        <v>Dominant</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36" t="str">
+        <f>Personalities!B12</f>
+        <v>Submissive</v>
+      </c>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36" t="str">
+        <f>Personalities!B13</f>
+        <v>Perfectionist</v>
+      </c>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36" t="str">
+        <f>Personalities!B14</f>
+        <v>Vigilant</v>
+      </c>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36" t="str">
+        <f>Personalities!B15</f>
+        <v>Brave</v>
+      </c>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36" t="str">
+        <f>Personalities!B16</f>
+        <v>Stable</v>
+      </c>
+      <c r="V7" s="36"/>
+      <c r="W7" s="36" t="str">
+        <f>Personalities!B17</f>
+        <v>Insane</v>
+      </c>
+      <c r="X7" s="36"/>
+    </row>
+    <row r="8" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="L8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="U8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="V8" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="W8" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="X8" s="32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="21"/>
+      <c r="U9" s="21"/>
+      <c r="V9" s="21"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="21"/>
+    </row>
+    <row r="10" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="21"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="21"/>
+      <c r="Q10" s="21"/>
+      <c r="R10" s="21"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="21"/>
+      <c r="U10" s="21"/>
+      <c r="V10" s="21"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="21"/>
+    </row>
+    <row r="11" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="21"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="21"/>
+      <c r="Q12" s="21"/>
+      <c r="R12" s="21"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="21"/>
+      <c r="U12" s="21"/>
+      <c r="V12" s="21"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="21"/>
+    </row>
+    <row r="13" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="21"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="21"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+    </row>
+    <row r="14" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+      <c r="U14" s="21"/>
+      <c r="V14" s="21"/>
+      <c r="W14" s="21"/>
+      <c r="X14" s="21"/>
+    </row>
+    <row r="15" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="21"/>
+      <c r="P15" s="21"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+    </row>
+    <row r="16" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+    </row>
+    <row r="17" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="21"/>
+      <c r="P17" s="21"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+    </row>
+    <row r="18" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21"/>
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="21"/>
+      <c r="X18" s="21"/>
+    </row>
+    <row r="19" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="21"/>
+      <c r="P19" s="21"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+    </row>
+    <row r="20" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="21"/>
+      <c r="P20" s="21"/>
+      <c r="Q20" s="21"/>
+      <c r="R20" s="21"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="21"/>
+      <c r="U20" s="21"/>
+      <c r="V20" s="21"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="21"/>
+    </row>
+    <row r="21" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="21"/>
+      <c r="P21" s="21"/>
+      <c r="Q21" s="21"/>
+      <c r="R21" s="21"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="21"/>
+      <c r="U21" s="21"/>
+      <c r="V21" s="21"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="21"/>
+    </row>
+    <row r="22" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="21"/>
+      <c r="P22" s="21"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="21"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="21"/>
+      <c r="U22" s="21"/>
+      <c r="V22" s="21"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="21"/>
+    </row>
+    <row r="23" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
+      <c r="J23" s="21"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="21"/>
+      <c r="P23" s="21"/>
+      <c r="Q23" s="21"/>
+      <c r="R23" s="21"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="21"/>
+      <c r="U23" s="21"/>
+      <c r="V23" s="21"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="21"/>
+    </row>
+    <row r="24" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="21"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+      <c r="J24" s="21"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="21"/>
+      <c r="U24" s="21"/>
+      <c r="V24" s="21"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="21"/>
+    </row>
+    <row r="25" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="21"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="21"/>
+      <c r="Q25" s="21"/>
+      <c r="R25" s="21"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="21"/>
+      <c r="U25" s="21"/>
+      <c r="V25" s="21"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="21"/>
+    </row>
+    <row r="26" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="21"/>
+      <c r="Q26" s="21"/>
+      <c r="R26" s="21"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="21"/>
+      <c r="V26" s="21"/>
+      <c r="W26" s="21"/>
+      <c r="X26" s="21"/>
+    </row>
+    <row r="27" spans="2:24" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+      <c r="P27" s="21"/>
+      <c r="Q27" s="21"/>
+      <c r="R27" s="21"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="21"/>
+      <c r="U27" s="21"/>
+      <c r="V27" s="21"/>
+      <c r="W27" s="21"/>
+      <c r="X27" s="21"/>
+    </row>
+    <row r="28" spans="2:24" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="13">
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="W7:X7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="Q7:R7"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -699,10 +2437,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C6"/>
+  <dimension ref="B1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -710,26 +2448,30 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="4" spans="2:3" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="1" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="27"/>
+    </row>
+    <row r="3" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:3" ht="28.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-    </row>
+    </row>
+    <row r="7" spans="2:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:C4"/>
@@ -741,37 +2483,122 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E6"/>
+  <dimension ref="B1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="13" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="4" spans="2:5" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="10"/>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+    </row>
+    <row r="3" spans="2:13" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:13" ht="60" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="19" t="str">
+        <f>Personalities!B7</f>
+        <v>Berserker</v>
+      </c>
+      <c r="D7" s="19" t="str">
+        <f>Personalities!B8</f>
+        <v>Intelligent</v>
+      </c>
+      <c r="E7" s="19" t="str">
+        <f>Personalities!B9</f>
+        <v>Adaptive</v>
+      </c>
+      <c r="F7" s="19" t="str">
+        <f>Personalities!B10</f>
+        <v>Honorable</v>
+      </c>
+      <c r="G7" s="19" t="str">
+        <f>Personalities!B11</f>
+        <v>Dominant</v>
+      </c>
+      <c r="H7" s="19" t="str">
+        <f>Personalities!B12</f>
+        <v>Submissive</v>
+      </c>
+      <c r="I7" s="19" t="str">
+        <f>Personalities!B13</f>
+        <v>Perfectionist</v>
+      </c>
+      <c r="J7" s="19" t="str">
+        <f>Personalities!B14</f>
+        <v>Vigilant</v>
+      </c>
+      <c r="K7" s="19" t="str">
+        <f>Personalities!B15</f>
+        <v>Brave</v>
+      </c>
+      <c r="L7" s="19" t="str">
+        <f>Personalities!B16</f>
+        <v>Stable</v>
+      </c>
+      <c r="M7" s="19" t="str">
+        <f>Personalities!B17</f>
+        <v>Insane</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B4:D4"/>
